--- a/biology/Zoologie/Columbiformes/Columbiformes.xlsx
+++ b/biology/Zoologie/Columbiformes/Columbiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Columbiformes sont un ordre d'oiseaux constitué de deux familles dont une éteinte. La seule famille existante, celle des Columbidae, est constituée de 42 genres et 320 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des taxons subordonnés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">famille des Columbidae Leach, 1820
 sous-famille des Columbinae : pigeons, tourterelles, phasianelles, tourtelettes, colombines, géopélies, colombes, Nicobar à camail, gallicolombes, trugon, microgoura
@@ -521,7 +535,7 @@
 sous-famille des Treroninae : phapitrérons, colombars, ptilopes, founingos, carpophages
 sous-famille des Raphinae : dodos
 La famille des Pteroclidae (ou Ptéroclidés) (gangas et syrrhaptes), autrefois incluse dans cet ordre, a ensuite formé l'ordre des Pterocliformes.
-Des analyses ostéologiques et génétiques suggèrent que l'ex-famille des Raphidae est mieux traitée comme une sous-famille, les Raphinae[1],[2].
+Des analyses ostéologiques et génétiques suggèrent que l'ex-famille des Raphidae est mieux traitée comme une sous-famille, les Raphinae,.
 			Columba livia, un Columbinae.
 			Otidiphaps nobilis, un Otidiphabinae.
 			Goura victoria, un Gourinae.
